--- a/excelData/EMR_LiverPathologicalInfo.template.xlsx
+++ b/excelData/EMR_LiverPathologicalInfo.template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heguangliang/PycharmProjects/databaseDemo2/excelData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA423C29-9C8D-5541-A7DF-5571D37A06EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE897BC-224B-9F4F-A94D-772770666B81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29460" yWindow="1960" windowWidth="26660" windowHeight="18000" xr2:uid="{66898049-8714-FE4B-86D5-F9D15AC321B6}"/>
+    <workbookView xWindow="29460" yWindow="460" windowWidth="26660" windowHeight="17540" xr2:uid="{66898049-8714-FE4B-86D5-F9D15AC321B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>病历编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>肿瘤类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分化程度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -61,10 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>肿瘤1直径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>肿瘤2直径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MVI类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>切面距癌距离(切除面)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,6 +98,22 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病理类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MVI风险等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病理编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肿瘤最大径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,15 +503,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D0B04E-A1C2-3A41-B18B-CF9963D16FDB}">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="34">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="34">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -517,56 +521,59 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
